--- a/fuentes/contenidos/grado09/guion06/Escaleta_CN_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/Escaleta_CN_09_06_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos E\Aula Planeta\Edición\Amanda Varela\CN_09_06_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$295</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="250">
   <si>
     <t>Asignatura</t>
   </si>
@@ -425,361 +420,355 @@
     <t>m102ab</t>
   </si>
   <si>
-    <t>Recurso M101A-05</t>
+    <t>Microbiología, el estudio de los seres vivos</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Microbiología, el estudio de los seres vivos</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema Microbiología, el estudio de los seres vivos</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos acerca del tema Microbiología, el estudio de los seres vivos</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Microbiología, el estudio de los seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los microorganismos  </t>
+  </si>
+  <si>
+    <t>La diversidad microbiana</t>
+  </si>
+  <si>
+    <t>Las arqueas</t>
+  </si>
+  <si>
+    <t>Los eucariotas</t>
+  </si>
+  <si>
+    <t>Los hongos</t>
+  </si>
+  <si>
+    <t>Los virus, los viroides y los priones</t>
+  </si>
+  <si>
+    <t>La relación entre los microorganismos y otros seres vivos</t>
+  </si>
+  <si>
+    <t>El cultivo de los microorganismos</t>
+  </si>
+  <si>
+    <t>El cultivo de los microorganismos en la industria</t>
+  </si>
+  <si>
+    <t>El cultivo y uso de los microorganismos</t>
+  </si>
+  <si>
+    <t>El uso de los microorganismos en la alimentación</t>
+  </si>
+  <si>
+    <t>Los microorganismos y su estudio</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los microorganismos</t>
+  </si>
+  <si>
+    <t>El estudio de los microbios</t>
+  </si>
+  <si>
+    <t>Los microorganismos eucariotas</t>
+  </si>
+  <si>
+    <t>Los microorganismos procariotas</t>
+  </si>
+  <si>
+    <t>La reproducción de los microorganismos</t>
+  </si>
+  <si>
+    <t>La interacción de los microorganismos con otros seres vivos</t>
+  </si>
+  <si>
+    <t>El papel de los microorganismos en los ecosistemas</t>
+  </si>
+  <si>
+    <t>Los microorganismos patógenos</t>
+  </si>
+  <si>
+    <t>Competencias: detección de bacterias en diferentes superficies</t>
+  </si>
+  <si>
+    <t>Competencias: identificación de protistas en el agua</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El uso de los microorganismos</t>
+  </si>
+  <si>
+    <t>Interactivo para conocer a los microorganismos y la historia de su investigación</t>
+  </si>
+  <si>
+    <t>Interactivo para reconocer las características generales de los microorganismos</t>
+  </si>
+  <si>
+    <t>La utilidad de los microorganismos para el ser humano</t>
+  </si>
+  <si>
+    <t>Interactivo para comprender las distintas formas en que el hombre usa los microorganismos</t>
+  </si>
+  <si>
+    <t>Interactivo que permite entender la relación de los microorganismos con los demás seres vivos</t>
+  </si>
+  <si>
+    <t>Los microorganismos y la alimentación</t>
+  </si>
+  <si>
+    <t>Las dos primeras opciones diferencian entre microorganismos procariotas y eucariotas. El primer menú lleva a dos imágenes: bacterias y arqueas. El segundo menú tiene 3 imágenes: protistas, hongos y algas. Hacer un practica.</t>
+  </si>
+  <si>
+    <t>La importancia ecológica de los microorganismos</t>
+  </si>
+  <si>
+    <t>Los microorganismos y las enfermedades</t>
+  </si>
+  <si>
+    <t>Se hacen tres imágenes de menú: hábitat, alimentación, reproducción.</t>
+  </si>
+  <si>
+    <t>El menú se divide en usos de los microorganismos: alimentación, medicina, industria. Hay otra imagen más (puede ser la primera o la última) que explica cómo se cultivan microorganismos. En alimentos, se debe mencionar la agricultura.</t>
+  </si>
+  <si>
+    <t>Se hace un texto que explica la importancia ecológica de los microorganismos, y otro que explique su relación con diversas enfermedades</t>
+  </si>
+  <si>
+    <t>Preguntas sobre diferentes aspectos del uso de microorganismos por parte del ser humano</t>
+  </si>
+  <si>
+    <t>La utilidad de los microorganismos</t>
+  </si>
+  <si>
+    <t>Se hacen frases que hagan descripciones de hábitos de microorganismos (aerobio, autótrofo, etc.)</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar los distitnos tipos de microorganismos con características particulares</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer diferencias y similitudes entre las bacterias y las arqueas</t>
+  </si>
+  <si>
+    <t>¿Cómo se reproducen los virus y viroides?</t>
+  </si>
+  <si>
+    <t>Actividad para organizar eventos que describen el proceso de replicación de virus y viroides</t>
+  </si>
+  <si>
+    <t>Dividir la reproducción de virus y viroides en etapas, representadas por frases cortas (llegada del virus, penetración de membranas, etc.)</t>
+  </si>
+  <si>
+    <t>Texto sobre generalidades de los microorganismos y algunos hitos en la historia de su investigación.</t>
+  </si>
+  <si>
+    <t>El texto contiene información genral sobre los microorganismos, y hace un breve repaso histórico sobre la microbiología</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los microorganismos y su relación con los demás seres vivos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los distintos tipos de microorganismos</t>
+  </si>
+  <si>
+    <t>Actividad para recordar y repasar aspectos generales acerca de los microorganismos y la microbiología</t>
+  </si>
+  <si>
+    <t>Actividad para analizar aspectos generales sobre los microorganismos y su estudio</t>
+  </si>
+  <si>
+    <t>Preguntas de análisis</t>
+  </si>
+  <si>
+    <t>Actividad que propone un experimento para comprobar la presencia de bacterias en sitios comunes</t>
+  </si>
+  <si>
+    <t>Actividad que propone un experimento para observar e identificar diferentes protistas que viven en cuerpo de agua cercanos</t>
+  </si>
+  <si>
+    <t>Actividad para recordar y comprender los tipos generales de microorganismos</t>
+  </si>
+  <si>
+    <t>Texto sencillo que resalte similitudes y, sobre todo, diferencias entre bacterias y arqueas</t>
+  </si>
+  <si>
+    <t>Actividad para analizar las características de los microorganismos</t>
+  </si>
+  <si>
+    <t>Actividad para analizar la relación de los microorganismos con otros seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad para analizar el uso de los microorganismos</t>
+  </si>
+  <si>
+    <t>Comprende los usos industriales de las bacetrias y los hongos</t>
+  </si>
+  <si>
+    <t>Actividad que propone completar un texto sobre los usos industriales de algunas bacterias y hongos</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la utilidad de los microorganismos</t>
+  </si>
+  <si>
+    <t>Los hábitos de los microorganismos</t>
+  </si>
+  <si>
+    <t>Las preguntas se refieren a la alimentación, el hábitat y la reproducción de los microorganismos</t>
+  </si>
+  <si>
+    <t>Actividad para identificar el significado de términos asociados a los hábitos de los microorganismos</t>
+  </si>
+  <si>
+    <t>Nutrición y metabolismo microbiano</t>
+  </si>
+  <si>
+    <t>Las palabras son términos relacionados con el metabolismo microbiano, tales como quimioautótrofos, y las frases tienen la descripción de cada término</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer el significado de los términos asociados al metabolismo microbiano</t>
+  </si>
+  <si>
+    <t>Los contenedores son tipos de microorganismo (protistas, por ejemplo), y los cajones para arrastrar tiene característica spropias de cada grupo. Hay que tener cuidado de no hacer descripciones que sirvan para más de un contenedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para repasar y recordar las características </t>
+  </si>
+  <si>
+    <t>Las formas de vida de los microorganismos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las diferentes formas de vida microbiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los tipos de microorganismo según </t>
+  </si>
+  <si>
+    <t>Los principales grupos taxonómicos de microorganismos</t>
+  </si>
+  <si>
+    <t>Interactivo para reconocer y diferenciar los grandes grupos taxonómicos de microorganismos</t>
+  </si>
+  <si>
+    <t>Las palabras de la sopa de letra se relacionan con alimentos y microorganismos: levadura, pan, cerveza, fermentación, etc.</t>
+  </si>
+  <si>
+    <t>Actividad para identificar términos relacionados con el papel de los microorganismos en la alimentación</t>
+  </si>
+  <si>
+    <t>En los párrafos se explica uno o varios agentes patógenos y sus efectos en el cuerpo, y otros aspectos relacionados.</t>
+  </si>
+  <si>
+    <t>Actividad para comprender la relación entre microorganismos y enfermedades</t>
+  </si>
+  <si>
+    <t>Los microorganismos y la medicina</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la importancia de los microorganismos en la medicina y entender aspectos básicos sobre su cultivo</t>
+  </si>
+  <si>
+    <t>La actividad contempla tanto aspectos del cultivo de microorganismos, como de sus aplicaciones en medicina. Hacer un texto largo.</t>
+  </si>
+  <si>
+    <t>¿Cómo viven los microorganismos?</t>
+  </si>
+  <si>
+    <t>Se hacen preguntas sobre diferentes aspectos ecológicos de los microorganismos. Las respeustas son palabras como micorriza, o frases como fijadores de nitrógeno. Solo usar términos explicados en el recurso F de esta sección.</t>
+  </si>
+  <si>
+    <t>1º ESO</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Los reinos de móneras, protoctistas y hongos</t>
+  </si>
+  <si>
+    <t>Comprende los usos industriales de las bacterias y los hongos</t>
+  </si>
+  <si>
+    <t>CN_07_10</t>
+  </si>
+  <si>
+    <t>Competencias: identificación de protoctistas en el agua</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F10-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Recurso M2A-02</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M15A-01</t>
+  </si>
+  <si>
+    <t>Recurso M12A-01</t>
+  </si>
+  <si>
+    <t>Recurso M1B-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-02</t>
+  </si>
+  <si>
+    <t>Recurso M1C-01</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Recurso M5D-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
   </si>
   <si>
     <t>CN_09_06_CO</t>
-  </si>
-  <si>
-    <t>Microbiología, el estudio de los seres vivos</t>
-  </si>
-  <si>
-    <t>Banco de actividades: Microbiología, el estudio de los seres vivos</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema Microbiología, el estudio de los seres vivos</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos acerca del tema Microbiología, el estudio de los seres vivos</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema Microbiología, el estudio de los seres vivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los microorganismos  </t>
-  </si>
-  <si>
-    <t>La diversidad microbiana</t>
-  </si>
-  <si>
-    <t>Las arqueas</t>
-  </si>
-  <si>
-    <t>Los eucariotas</t>
-  </si>
-  <si>
-    <t>Los hongos</t>
-  </si>
-  <si>
-    <t>Los virus, los viroides y los priones</t>
-  </si>
-  <si>
-    <t>La relación entre los microorganismos y otros seres vivos</t>
-  </si>
-  <si>
-    <t>El cultivo de los microorganismos</t>
-  </si>
-  <si>
-    <t>El cultivo de los microorganismos en la industria</t>
-  </si>
-  <si>
-    <t>El cultivo y uso de los microorganismos</t>
-  </si>
-  <si>
-    <t>El uso de los microorganismos en la alimentación</t>
-  </si>
-  <si>
-    <t>Los microorganismos y su estudio</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los microorganismos</t>
-  </si>
-  <si>
-    <t>El estudio de los microbios</t>
-  </si>
-  <si>
-    <t>Los microorganismos eucariotas</t>
-  </si>
-  <si>
-    <t>Los microorganismos procariotas</t>
-  </si>
-  <si>
-    <t>La reproducción de los microorganismos</t>
-  </si>
-  <si>
-    <t>La interacción de los microorganismos con otros seres vivos</t>
-  </si>
-  <si>
-    <t>El papel de los microorganismos en los ecosistemas</t>
-  </si>
-  <si>
-    <t>Los microorganismos patógenos</t>
-  </si>
-  <si>
-    <t>Competencias: detección de bacterias en diferentes superficies</t>
-  </si>
-  <si>
-    <t>Competencias: identificación de protistas en el agua</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: El uso de los microorganismos</t>
-  </si>
-  <si>
-    <t>Interactivo para conocer a los microorganismos y la historia de su investigación</t>
-  </si>
-  <si>
-    <t>Interactivo para reconocer las características generales de los microorganismos</t>
-  </si>
-  <si>
-    <t>La utilidad de los microorganismos para el ser humano</t>
-  </si>
-  <si>
-    <t>Interactivo para comprender las distintas formas en que el hombre usa los microorganismos</t>
-  </si>
-  <si>
-    <t>Interactivo que permite entender la relación de los microorganismos con los demás seres vivos</t>
-  </si>
-  <si>
-    <t>Los microorganismos y la alimentación</t>
-  </si>
-  <si>
-    <t>Las dos primeras opciones diferencian entre microorganismos procariotas y eucariotas. El primer menú lleva a dos imágenes: bacterias y arqueas. El segundo menú tiene 3 imágenes: protistas, hongos y algas. Hacer un practica.</t>
-  </si>
-  <si>
-    <t>La importancia ecológica de los microorganismos</t>
-  </si>
-  <si>
-    <t>Los microorganismos y las enfermedades</t>
-  </si>
-  <si>
-    <t>Se hacen tres imágenes de menú: hábitat, alimentación, reproducción.</t>
-  </si>
-  <si>
-    <t>El menú se divide en usos de los microorganismos: alimentación, medicina, industria. Hay otra imagen más (puede ser la primera o la última) que explica cómo se cultivan microorganismos. En alimentos, se debe mencionar la agricultura.</t>
-  </si>
-  <si>
-    <t>Se hace un texto que explica la importancia ecológica de los microorganismos, y otro que explique su relación con diversas enfermedades</t>
-  </si>
-  <si>
-    <t>Preguntas sobre diferentes aspectos del uso de microorganismos por parte del ser humano</t>
-  </si>
-  <si>
-    <t>La utilidad de los microorganismos</t>
-  </si>
-  <si>
-    <t>Se hacen frases que hagan descripciones de hábitos de microorganismos (aerobio, autótrofo, etc.)</t>
-  </si>
-  <si>
-    <t>Actividad para relacionar los distitnos tipos de microorganismos con características particulares</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer diferencias y similitudes entre las bacterias y las arqueas</t>
-  </si>
-  <si>
-    <t>¿Cómo se reproducen los virus y viroides?</t>
-  </si>
-  <si>
-    <t>Actividad para organizar eventos que describen el proceso de replicación de virus y viroides</t>
-  </si>
-  <si>
-    <t>Dividir la reproducción de virus y viroides en etapas, representadas por frases cortas (llegada del virus, penetración de membranas, etc.)</t>
-  </si>
-  <si>
-    <t>Texto sobre generalidades de los microorganismos y algunos hitos en la historia de su investigación.</t>
-  </si>
-  <si>
-    <t>El texto contiene información genral sobre los microorganismos, y hace un breve repaso histórico sobre la microbiología</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los microorganismos y su relación con los demás seres vivos</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los distintos tipos de microorganismos</t>
-  </si>
-  <si>
-    <t>Actividad para recordar y repasar aspectos generales acerca de los microorganismos y la microbiología</t>
-  </si>
-  <si>
-    <t>Actividad para analizar aspectos generales sobre los microorganismos y su estudio</t>
-  </si>
-  <si>
-    <t>Preguntas de análisis</t>
-  </si>
-  <si>
-    <t>Actividad que propone un experimento para comprobar la presencia de bacterias en sitios comunes</t>
-  </si>
-  <si>
-    <t>Actividad que propone un experimento para observar e identificar diferentes protistas que viven en cuerpo de agua cercanos</t>
-  </si>
-  <si>
-    <t>Actividad para recordar y comprender los tipos generales de microorganismos</t>
-  </si>
-  <si>
-    <t>Texto sencillo que resalte similitudes y, sobre todo, diferencias entre bacterias y arqueas</t>
-  </si>
-  <si>
-    <t>Actividad para analizar las características de los microorganismos</t>
-  </si>
-  <si>
-    <t>Actividad para analizar la relación de los microorganismos con otros seres vivos</t>
-  </si>
-  <si>
-    <t>Actividad para analizar el uso de los microorganismos</t>
-  </si>
-  <si>
-    <t>Comprende los usos industriales de las bacetrias y los hongos</t>
-  </si>
-  <si>
-    <t>Actividad que propone completar un texto sobre los usos industriales de algunas bacterias y hongos</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer la utilidad de los microorganismos</t>
-  </si>
-  <si>
-    <t>Los hábitos de los microorganismos</t>
-  </si>
-  <si>
-    <t>Las preguntas se refieren a la alimentación, el hábitat y la reproducción de los microorganismos</t>
-  </si>
-  <si>
-    <t>Actividad para identificar el significado de términos asociados a los hábitos de los microorganismos</t>
-  </si>
-  <si>
-    <t>Nutrición y metabolismo microbiano</t>
-  </si>
-  <si>
-    <t>Las palabras son términos relacionados con el metabolismo microbiano, tales como quimioautótrofos, y las frases tienen la descripción de cada término</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer el significado de los términos asociados al metabolismo microbiano</t>
-  </si>
-  <si>
-    <t>Los contenedores son tipos de microorganismo (protistas, por ejemplo), y los cajones para arrastrar tiene característica spropias de cada grupo. Hay que tener cuidado de no hacer descripciones que sirvan para más de un contenedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para repasar y recordar las características </t>
-  </si>
-  <si>
-    <t>Las formas de vida de los microorganismos</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las diferentes formas de vida microbiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los tipos de microorganismo según </t>
-  </si>
-  <si>
-    <t>Los principales grupos taxonómicos de microorganismos</t>
-  </si>
-  <si>
-    <t>Interactivo para reconocer y diferenciar los grandes grupos taxonómicos de microorganismos</t>
-  </si>
-  <si>
-    <t>Las palabras de la sopa de letra se relacionan con alimentos y microorganismos: levadura, pan, cerveza, fermentación, etc.</t>
-  </si>
-  <si>
-    <t>Actividad para identificar términos relacionados con el papel de los microorganismos en la alimentación</t>
-  </si>
-  <si>
-    <t>En los párrafos se explica uno o varios agentes patógenos y sus efectos en el cuerpo, y otros aspectos relacionados.</t>
-  </si>
-  <si>
-    <t>Actividad para comprender la relación entre microorganismos y enfermedades</t>
-  </si>
-  <si>
-    <t>Los microorganismos y la medicina</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer la importancia de los microorganismos en la medicina y entender aspectos básicos sobre su cultivo</t>
-  </si>
-  <si>
-    <t>La actividad contempla tanto aspectos del cultivo de microorganismos, como de sus aplicaciones en medicina. Hacer un texto largo.</t>
-  </si>
-  <si>
-    <t>¿Cómo viven los microorganismos?</t>
-  </si>
-  <si>
-    <t>Se hacen preguntas sobre diferentes aspectos ecológicos de los microorganismos. Las respeustas son palabras como micorriza, o frases como fijadores de nitrógeno. Solo usar términos explicados en el recurso F de esta sección.</t>
-  </si>
-  <si>
-    <t>1º ESO</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Los reinos de móneras, protoctistas y hongos</t>
-  </si>
-  <si>
-    <t>Comprende los usos industriales de las bacterias y los hongos</t>
-  </si>
-  <si>
-    <t>CN_07_10</t>
-  </si>
-  <si>
-    <t>Competencias: identificación de protoctistas en el agua</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F10-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
-    <t>Recurso F6-02</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Recurso M2A-02</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M15A-01</t>
-  </si>
-  <si>
-    <t>Recurso M12A-01</t>
-  </si>
-  <si>
-    <t>Recurso M1B-01</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>Recurso M14A-02</t>
-  </si>
-  <si>
-    <t>Recurso M1C-01</t>
-  </si>
-  <si>
-    <t>Recurso M2C-01</t>
-  </si>
-  <si>
-    <t>Recurso M5D-01</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,7 +1156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1376,11 +1365,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="34"/>
       <c r="C2" s="45"/>
@@ -1497,23 +1487,23 @@
       <c r="T2" s="49"/>
       <c r="U2" s="47"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="27"/>
       <c r="G3" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1522,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1535,7 +1525,7 @@
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>19</v>
@@ -1544,16 +1534,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1561,27 +1551,27 @@
         <v>17</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="27"/>
       <c r="G4" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1594,7 +1584,7 @@
         <v>28</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1609,7 +1599,7 @@
         <v>127</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>129</v>
@@ -1620,29 +1610,29 @@
         <v>17</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1655,7 +1645,7 @@
         <v>52</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
@@ -1670,7 +1660,7 @@
         <v>127</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>129</v>
@@ -1681,27 +1671,27 @@
         <v>17</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1714,7 +1704,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1723,16 +1713,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,29 +1730,29 @@
         <v>17</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1775,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1790,7 +1780,7 @@
         <v>127</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>129</v>
@@ -1801,31 +1791,31 @@
         <v>17</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1838,7 +1828,7 @@
         <v>43</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -1853,7 +1843,7 @@
         <v>127</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U8" s="10" t="s">
         <v>129</v>
@@ -1864,29 +1854,29 @@
         <v>17</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H9" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -1899,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
@@ -1914,7 +1904,7 @@
         <v>127</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>129</v>
@@ -1925,29 +1915,29 @@
         <v>17</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -1960,7 +1950,7 @@
         <v>52</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -1975,7 +1965,7 @@
         <v>127</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>129</v>
@@ -1986,27 +1976,27 @@
         <v>17</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H11" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2019,7 +2009,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>19</v>
@@ -2028,16 +2018,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2045,27 +2035,27 @@
         <v>17</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H12" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2078,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2093,7 +2083,7 @@
         <v>127</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>129</v>
@@ -2104,29 +2094,29 @@
         <v>17</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H13" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2139,7 +2129,7 @@
         <v>120</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2154,40 +2144,40 @@
         <v>127</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H14" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2200,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>20</v>
@@ -2215,36 +2205,40 @@
         <v>127</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="C15" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H15" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2257,7 +2251,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2272,7 +2266,7 @@
         <v>127</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>129</v>
@@ -2283,27 +2277,27 @@
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H16" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2316,7 +2310,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2325,16 +2319,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2342,29 +2336,29 @@
         <v>17</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H17" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2377,7 +2371,7 @@
         <v>120</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2392,7 +2386,7 @@
         <v>127</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>129</v>
@@ -2403,29 +2397,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H18" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2438,7 +2432,7 @@
         <v>36</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2453,7 +2447,7 @@
         <v>127</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>129</v>
@@ -2464,29 +2458,29 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H19" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2499,7 +2493,7 @@
         <v>52</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2514,7 +2508,7 @@
         <v>127</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>129</v>
@@ -2525,27 +2519,27 @@
         <v>17</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H20" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2558,7 +2552,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2567,16 +2561,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2584,29 +2578,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H21" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2619,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2634,7 +2628,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>129</v>
@@ -2645,29 +2639,29 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2680,7 +2674,7 @@
         <v>51</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2695,40 +2689,40 @@
         <v>127</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H23" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2743,19 +2737,19 @@
         <v>20</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="T23" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="U23" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2763,29 +2757,29 @@
         <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H24" s="9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2798,7 +2792,7 @@
         <v>32</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -2824,29 +2818,29 @@
         <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2859,7 +2853,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -2874,7 +2868,7 @@
         <v>127</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>129</v>
@@ -2885,10 +2879,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>123</v>
@@ -2896,16 +2890,16 @@
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H26" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -2922,19 +2916,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="R26" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="S26" s="10" t="s">
+      <c r="T26" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="U26" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2942,10 +2936,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>123</v>
@@ -2953,16 +2947,16 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H27" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -2979,19 +2973,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="S27" s="10" t="s">
+      <c r="T27" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="U27" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2999,10 +2993,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>124</v>
@@ -3013,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="H28" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3044,10 +3038,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>124</v>
@@ -3058,13 +3052,13 @@
         <v>125</v>
       </c>
       <c r="H29" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3090,21 +3084,21 @@
         <v>127</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>124</v>
@@ -3112,16 +3106,16 @@
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3153,7 +3147,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="24"/>
       <c r="C31" s="14"/>
@@ -3176,7 +3170,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="24"/>
       <c r="C32" s="14"/>
@@ -3199,7 +3193,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="24"/>
       <c r="C33" s="14"/>
@@ -3222,7 +3216,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="24"/>
       <c r="C34" s="14"/>
@@ -3245,7 +3239,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="24"/>
       <c r="C35" s="14"/>
@@ -3268,7 +3262,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="24"/>
       <c r="C36" s="14"/>
@@ -3291,7 +3285,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="24"/>
       <c r="C37" s="14"/>
@@ -3314,7 +3308,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="24"/>
       <c r="C38" s="14"/>
@@ -3337,7 +3331,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="24"/>
       <c r="C39" s="14"/>
@@ -3360,7 +3354,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3383,7 +3377,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3406,7 +3400,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3429,7 +3423,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3452,7 +3446,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3475,7 +3469,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3498,7 +3492,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3521,7 +3515,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3544,7 +3538,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3567,7 +3561,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3590,7 +3584,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3613,7 +3607,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3636,7 +3630,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3659,7 +3653,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3682,7 +3676,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3705,7 +3699,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3728,7 +3722,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3751,7 +3745,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3774,7 +3768,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3797,7 +3791,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3820,7 +3814,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3843,7 +3837,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3866,7 +3860,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3889,7 +3883,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3912,7 +3906,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3935,7 +3929,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3958,7 +3952,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3981,7 +3975,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4004,7 +3998,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4027,7 +4021,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4050,7 +4044,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4073,7 +4067,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4096,7 +4090,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4119,7 +4113,7 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -4142,7 +4136,7 @@
       <c r="T73" s="12"/>
       <c r="U73" s="10"/>
     </row>
-    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -4165,7 +4159,7 @@
       <c r="T74" s="12"/>
       <c r="U74" s="10"/>
     </row>
-    <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -4188,7 +4182,7 @@
       <c r="T75" s="12"/>
       <c r="U75" s="10"/>
     </row>
-    <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -4211,7 +4205,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="10"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -4234,7 +4228,7 @@
       <c r="T77" s="12"/>
       <c r="U77" s="10"/>
     </row>
-    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -4257,7 +4251,7 @@
       <c r="T78" s="12"/>
       <c r="U78" s="10"/>
     </row>
-    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -4280,7 +4274,7 @@
       <c r="T79" s="12"/>
       <c r="U79" s="10"/>
     </row>
-    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -4303,7 +4297,7 @@
       <c r="T80" s="12"/>
       <c r="U80" s="10"/>
     </row>
-    <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -4326,6 +4320,7 @@
       <c r="T81" s="12"/>
       <c r="U81" s="10"/>
     </row>
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4688,8 +4683,12 @@
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="295" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
+  <autoFilter ref="P1:P295">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
